--- a/similarities/split_global/harmonic_similarity_timestamps_130.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_130.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_215</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:58.350000', '0:01:04.070000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:20.280000'), ('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:06.090000', '0:00:09.538163')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=58.35</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-215#t=6.09</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:07.100000', '0:00:27.920000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:59.100000', '0:01:09')]</t>
+          <t>('0:00:19.860000', '0:00:22.320000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=7.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=59.1']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:09.200000', '0:00:20.100000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:09.280000', '0:00:11.080000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.779093', '0:00:14.076327')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=9.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=10.779093']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.100000', '0:00:18.300000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=62.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=7.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>jaah_62</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F']]</t>
+          <t>['A:7', 'A:min7', 'D:7', 'G:maj7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab/3']]</t>
+          <t>['G:7', 'G:min7', 'C:7', 'F:maj7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:22.680000', '0:00:26.280000')]</t>
+          <t>('0:00:52.340000', '0:00:59.090000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:24.460000', '0:00:30.010000')]</t>
+          <t>('0:00:08.710000', '0:00:12.630000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=22.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=52.34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=24.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-62#t=8.71</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:01:34.800000', '0:01:46.960000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:28.800000', '0:00:36.860000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=94.8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=28.8</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_97</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:7/F', 'D#']]</t>
+          <t>['E', 'A', 'B', 'E', 'A', 'B']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
+          <t>['B', 'E/5', 'F#/4', 'B', 'E/5', 'F#/4']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:47.900000', '0:00:51.040000')]</t>
+          <t>('0:00:28.208042', '0:00:35.150809')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:09.330793', '0:00:22.635827')]</t>
+          <t>('0:02:03.652000', '0:02:13.985000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=47.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=28.208042</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-97#t=9.330793']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=123.652</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A/3']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:00:36.660000', '0:00:43.940000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:11.860000', '0:00:14.560000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:10.360000')]</t>
+          <t>('0:00:00.421247', '0:00:07.505864')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['B:min/5', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:45.580000')]</t>
+          <t>('0:00:08.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
+          <t>('0:00:23.632675', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B:7']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:44.354195', '0:01:53.665396')]</t>
+          <t>('0:00:01.260000', '0:00:05.920000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:04.280000', '0:01:07.380000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=104.354195']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=64.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>isophonics_171</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['E', 'C', 'E']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Ab', 'E', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:26.940000', '0:01:37.980000'), ('0:01:35.020000', '0:01:47.700000')]</t>
+          <t>('0:00:12.263975', '0:00:22.829055')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:41.260000', '0:00:44.840000'), ('0:01:04.420000', '0:01:09.700000')]</t>
+          <t>('0:00:09.900000', '0:00:12.910000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=86.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=95.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-171#t=12.263975</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=41.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=64.42']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=9.9</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>isophonics_238</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>schubert-winterreise_212</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['B:dim7', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G#:dim7', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:38.060000', '0:01:45.600000'), ('0:02:14.220000', '0:02:19.560000')]</t>
+          <t>('0:00:30.076213', '0:00:37.274399')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:36.940000', '0:01:43.280000'), ('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:18.840000', '0:00:20.320000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=98.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-238#t=30.076213</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=96.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-212#t=18.84</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['D', 'G', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:00:05.892630', '0:00:09.364013')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:01:00.898000', '0:01:07.056000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=5.89263</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
